--- a/public/formats/items.xlsx
+++ b/public/formats/items.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\factu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5105861-BA87-49FF-943D-DAFAEE480FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7650" tabRatio="500"/>
+    <workbookView xWindow="135" yWindow="2070" windowWidth="15750" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -23,8 +24,214 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Gonzalo Aliaga</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{350D6A17-7EF2-44C2-85F5-B5DA55D95B5E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Es esencial completar este campo, ya que se definirá el nombre del producto.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{1C0AFFEC-CD58-46FC-A858-67ABB11B061B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>El llenado de esta información es opcional, pero permitirá que los productos con código aparezcan en el aplicativo.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{3AB353EB-3F29-4C22-9934-10A443028F03}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>No es necesario</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{7854EC99-CCDB-4ADD-BCE6-D12F28F55BD7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">No es necesario </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{F931DE43-D5B3-47F0-9F58-68DA96007C3E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Es importante completar esta casilla, ya que los productos requieren un Código de Tipo de Unidad. 
+Para verificar los códigos válidos, visite: https://facturaperu.com.pe/unidades-de-medida-sunat/. 
+Recuerde que los códigos ingresados también deben estar agregados en su plataforma.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{F63780F5-7C5E-43F6-9774-A42881F694E0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Es importante completar esta información correctamente. Tenga en cuenta que:
+PEN = Soles
+USD = Dólares</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{9260558B-E0AE-41DD-965F-01DE9634CB6E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Es crucial completar esta casilla, teniendo en cuenta que el precio unitario de venta no puede ser igual a 0.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{791870B5-C00D-45AD-951C-4125A2FD20DC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Es importante completar esta casilla, ya que indica si el producto está sujeto al IGV. Por ejemplo, el código '10' corresponde a 'Gravado – Operación Onerosa'. 
+Para más información, puede consultar en: https://facturaperu.com.pe/codigos-de-tipo-de-afectacion-del-igv/.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{0BC29B57-5A35-4852-B255-48CA5E4F28BF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Se recomienda mantener la opción 'Sí' activada, ya que esto indica que el producto ya incluye el IGV. Si se selecciona 'No', el sistema realizará una multiplicación para añadir el IGV a los productos.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{0B6BEE8A-52EE-415C-989B-DF1E4E766D99}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>IMPORTANTE:
+esta casilla si desean la puedes manejar en CERO. 
+Del caso que no hubiera el precio unitario de compra.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{CE6105D6-9BEE-467A-9C84-3CB1F78698D4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Es esencial completar esta casilla, ya que indica si el producto está sujeto al IGV de compra. Por ejemplo, el código '10' corresponde a 'Gravado – Operación Onerosa'. 
+Para más información, puede consultar en: https://facturaperu.com.pe/codigos-de-tipo-de-afectacion-del-igv/.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{5CC4A983-CDFF-4C8C-B6D8-EE90401C5BEB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ATENCIÓN:
+El stock del producto debe ser superior a cero y no puede ser menor que el stock mínimo requerido.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{38179829-580D-4F31-9757-B614CDA188B6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>IMPORTANTE:
+Es crucial completar esta casilla, teniendo en cuenta que el stock no puede ser igual a CERO.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Nombre</t>
   </si>
@@ -92,9 +299,6 @@
     <t>PEN</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
     <t>Gaseosas</t>
   </si>
   <si>
@@ -117,16 +321,25 @@
   </si>
   <si>
     <t>https://ejemplo.com/producto</t>
+  </si>
+  <si>
+    <t>COLOR NEGRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CON ROJO </t>
+  </si>
+  <si>
+    <t>SI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -142,16 +355,29 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -159,15 +385,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -482,18 +725,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="4" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
     <col min="6" max="6" width="22.140625" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
@@ -501,142 +745,148 @@
     <col min="9" max="9" width="9" customWidth="1"/>
     <col min="10" max="10" width="21.7109375" customWidth="1"/>
     <col min="11" max="11" width="38.28515625" customWidth="1"/>
-    <col min="12" max="12" width="5.7109375" customWidth="1"/>
+    <col min="12" max="12" width="6.7109375" customWidth="1"/>
     <col min="13" max="13" width="12.85546875" customWidth="1"/>
+    <col min="15" max="15" width="7.85546875" customWidth="1"/>
+    <col min="16" max="16" width="16" customWidth="1"/>
     <col min="17" max="17" width="18.5703125" customWidth="1"/>
+    <col min="18" max="18" width="11.85546875" customWidth="1"/>
     <col min="19" max="19" width="16.5703125" customWidth="1"/>
+    <col min="21" max="21" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
-        <v>29</v>
+      <c r="U1" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2">
+        <v>51121703</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>10</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>10</v>
+      </c>
+      <c r="L2" s="2">
+        <v>10</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2">
-        <v>51121703</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2">
-        <v>90</v>
-      </c>
-      <c r="H2">
-        <v>10</v>
-      </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2">
-        <v>70</v>
-      </c>
-      <c r="K2">
-        <v>10</v>
-      </c>
-      <c r="L2">
-        <v>4000</v>
-      </c>
-      <c r="M2">
-        <v>10</v>
-      </c>
-      <c r="N2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="P2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="2"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="P2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>26</v>
-      </c>
-      <c r="S2" s="1"/>
-      <c r="T2" t="s">
-        <v>28</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>30</v>
+      <c r="U2" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U2" r:id="rId1"/>
+    <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>